--- a/resources/wheels/234 - Ануфриенок.xlsx
+++ b/resources/wheels/234 - Ануфриенок.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -685,16 +685,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -891,9 +891,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -987,7 +987,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -997,7 +999,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1007,7 +1011,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -1526,16 +1532,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,9 +1738,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -1828,7 +1834,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -1838,7 +1846,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -1848,7 +1858,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -2367,16 +2379,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2573,9 +2585,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -2669,7 +2681,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -2679,7 +2693,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -2689,7 +2705,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -3208,16 +3226,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3414,9 +3432,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3510,7 +3528,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -3520,7 +3540,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -3530,7 +3552,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4049,16 +4073,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4255,9 +4279,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -4351,7 +4375,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -4361,7 +4387,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -4371,7 +4399,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -4890,16 +4920,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5096,9 +5126,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -5192,7 +5222,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -5202,7 +5234,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -5212,7 +5246,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -5731,16 +5767,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5937,9 +5973,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6033,7 +6069,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6043,7 +6081,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6053,7 +6093,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -6572,16 +6614,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6778,9 +6820,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -6874,7 +6916,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -6884,7 +6928,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -6894,7 +6940,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -7413,16 +7461,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -7619,9 +7667,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -7715,7 +7763,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -7725,7 +7775,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -7735,7 +7787,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -8254,16 +8308,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -8460,9 +8514,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -8556,7 +8610,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -8566,7 +8622,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -8576,7 +8634,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
@@ -9095,16 +9155,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9301,9 +9361,9 @@
       <c r="F16" s="19">
         <v>56.2</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="19" t="n">
         <f>SUM(F16:F100)</f>
-        <v>83.2</v>
+        <v>91.756</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -9397,7 +9457,9 @@
       <c r="E24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F24" s="19"/>
+      <c r="F24" s="19" t="n">
+        <v>4.23</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="1"/>
     </row>
@@ -9407,7 +9469,9 @@
       <c r="E25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="19"/>
+      <c r="F25" s="19" t="n">
+        <v>0.0</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="1"/>
     </row>
@@ -9417,7 +9481,9 @@
       <c r="E26" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="19"/>
+      <c r="F26" s="19" t="n">
+        <v>4.326</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="1"/>
     </row>
